--- a/results/FrequencyTables/26581162_sg225F.xlsx
+++ b/results/FrequencyTables/26581162_sg225F.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0101010101010101</v>
+        <v>0.0276967930029155</v>
       </c>
       <c r="C2">
-        <v>0.222222222222222</v>
+        <v>0.188775510204082</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.010932944606414</v>
       </c>
       <c r="E2">
-        <v>0.818181818181818</v>
+        <v>0.737609329446064</v>
       </c>
       <c r="F2">
-        <v>0.171717171717172</v>
+        <v>0.239067055393586</v>
       </c>
       <c r="G2">
-        <v>0.787878787878788</v>
+        <v>0.644314868804665</v>
       </c>
       <c r="H2">
-        <v>0.242424242424242</v>
+        <v>0.302478134110787</v>
       </c>
       <c r="I2">
-        <v>0.757575757575758</v>
+        <v>0.716472303206997</v>
       </c>
       <c r="J2">
-        <v>0.0101010101010101</v>
+        <v>0.00947521865889213</v>
       </c>
       <c r="K2">
-        <v>0.818181818181818</v>
+        <v>0.749271137026239</v>
       </c>
       <c r="L2">
-        <v>0.818181818181818</v>
+        <v>0.754373177842566</v>
       </c>
       <c r="M2">
-        <v>0.0404040404040404</v>
+        <v>0.0196793002915452</v>
       </c>
       <c r="N2">
-        <v>0.161616161616162</v>
+        <v>0.209183673469388</v>
       </c>
       <c r="O2">
-        <v>0.282828282828283</v>
+        <v>0.358600583090379</v>
       </c>
       <c r="P2">
-        <v>0.0101010101010101</v>
+        <v>0.00145772594752187</v>
       </c>
       <c r="Q2">
-        <v>0.0101010101010101</v>
+        <v>0.0043731778425656</v>
       </c>
       <c r="R2">
-        <v>0.97979797979798</v>
+        <v>0.96064139941691</v>
       </c>
       <c r="S2">
-        <v>0.0404040404040404</v>
+        <v>0.123906705539359</v>
       </c>
       <c r="T2">
-        <v>0.454545454545455</v>
+        <v>0.262390670553936</v>
       </c>
       <c r="U2">
-        <v>0.0505050505050505</v>
+        <v>0.0532069970845481</v>
       </c>
       <c r="V2">
-        <v>0.0101010101010101</v>
+        <v>0.0291545189504373</v>
       </c>
       <c r="W2">
-        <v>0.0202020202020202</v>
+        <v>0.0247813411078717</v>
       </c>
       <c r="X2">
-        <v>0.0101010101010101</v>
+        <v>0.010932944606414</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.95959595959596</v>
+        <v>0.933673469387755</v>
       </c>
       <c r="C3">
-        <v>0.0101010101010101</v>
+        <v>0.0284256559766764</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0160349854227405</v>
       </c>
       <c r="E3">
-        <v>0.0101010101010101</v>
+        <v>0.0153061224489796</v>
       </c>
       <c r="F3">
-        <v>0.0202020202020202</v>
+        <v>0.0313411078717201</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00801749271137026</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00947521865889213</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0116618075801749</v>
       </c>
       <c r="J3">
-        <v>0.181818181818182</v>
+        <v>0.236880466472303</v>
       </c>
       <c r="K3">
-        <v>0.0101010101010101</v>
+        <v>0.0167638483965015</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0116618075801749</v>
       </c>
       <c r="M3">
-        <v>0.111111111111111</v>
+        <v>0.176384839650146</v>
       </c>
       <c r="N3">
-        <v>0.0404040404040404</v>
+        <v>0.0102040816326531</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00364431486880466</v>
       </c>
       <c r="P3">
-        <v>0.0404040404040404</v>
+        <v>0.0641399416909621</v>
       </c>
       <c r="Q3">
-        <v>0.0101010101010101</v>
+        <v>0.0116618075801749</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00291545189504373</v>
       </c>
       <c r="S3">
-        <v>0.0404040404040404</v>
+        <v>0.0349854227405248</v>
       </c>
       <c r="T3">
-        <v>0.0202020202020202</v>
+        <v>0.0145772594752187</v>
       </c>
       <c r="U3">
-        <v>0.0101010101010101</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0087463556851312</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0087463556851312</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0196793002915452</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0202020202020202</v>
+        <v>0.0189504373177843</v>
       </c>
       <c r="C4">
-        <v>0.252525252525253</v>
+        <v>0.38265306122449</v>
       </c>
       <c r="D4">
-        <v>0.828282828282828</v>
+        <v>0.744897959183674</v>
       </c>
       <c r="E4">
-        <v>0.161616161616162</v>
+        <v>0.223760932944606</v>
       </c>
       <c r="F4">
-        <v>0.808080808080808</v>
+        <v>0.724489795918367</v>
       </c>
       <c r="G4">
-        <v>0.202020202020202</v>
+        <v>0.32798833819242</v>
       </c>
       <c r="H4">
-        <v>0.595959595959596</v>
+        <v>0.470845481049563</v>
       </c>
       <c r="I4">
-        <v>0.242424242424242</v>
+        <v>0.260204081632653</v>
       </c>
       <c r="J4">
-        <v>0.808080808080808</v>
+        <v>0.750728862973761</v>
       </c>
       <c r="K4">
-        <v>0.0101010101010101</v>
+        <v>0.00801749271137026</v>
       </c>
       <c r="L4">
-        <v>0.0202020202020202</v>
+        <v>0.0240524781341108</v>
       </c>
       <c r="M4">
-        <v>0.808080808080808</v>
+        <v>0.766034985422741</v>
       </c>
       <c r="N4">
-        <v>0.0505050505050505</v>
+        <v>0.0473760932944606</v>
       </c>
       <c r="O4">
-        <v>0.717171717171717</v>
+        <v>0.637026239067055</v>
       </c>
       <c r="P4">
-        <v>0.161616161616162</v>
+        <v>0.217930029154519</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00291545189504373</v>
       </c>
       <c r="R4">
-        <v>0.0101010101010101</v>
+        <v>0.0276967930029155</v>
       </c>
       <c r="S4">
-        <v>0.919191919191919</v>
+        <v>0.837463556851312</v>
       </c>
       <c r="T4">
-        <v>0.0101010101010101</v>
+        <v>0.0189504373177843</v>
       </c>
       <c r="U4">
-        <v>0.939393939393939</v>
+        <v>0.91399416909621</v>
       </c>
       <c r="V4">
-        <v>0.0202020202020202</v>
+        <v>0.0145772594752187</v>
       </c>
       <c r="W4">
-        <v>0.97979797979798</v>
+        <v>0.957725947521866</v>
       </c>
       <c r="X4">
-        <v>0.818181818181818</v>
+        <v>0.739067055393586</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0101010101010101</v>
+        <v>0.0196793002915452</v>
       </c>
       <c r="C5">
-        <v>0.515151515151515</v>
+        <v>0.399416909620991</v>
       </c>
       <c r="D5">
-        <v>0.171717171717172</v>
+        <v>0.228134110787172</v>
       </c>
       <c r="E5">
-        <v>0.0101010101010101</v>
+        <v>0.0233236151603499</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0043731778425656</v>
       </c>
       <c r="G5">
-        <v>0.0101010101010101</v>
+        <v>0.0196793002915452</v>
       </c>
       <c r="H5">
-        <v>0.161616161616162</v>
+        <v>0.216472303206997</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0116618075801749</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00291545189504373</v>
       </c>
       <c r="K5">
-        <v>0.161616161616162</v>
+        <v>0.225947521865889</v>
       </c>
       <c r="L5">
-        <v>0.161616161616162</v>
+        <v>0.209912536443149</v>
       </c>
       <c r="M5">
-        <v>0.0404040404040404</v>
+        <v>0.0379008746355685</v>
       </c>
       <c r="N5">
-        <v>0.747474747474748</v>
+        <v>0.733236151603499</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.787878787878788</v>
+        <v>0.715014577259475</v>
       </c>
       <c r="Q5">
-        <v>0.97979797979798</v>
+        <v>0.981049562682216</v>
       </c>
       <c r="R5">
-        <v>0.0101010101010101</v>
+        <v>0.00801749271137026</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00291545189504373</v>
       </c>
       <c r="T5">
-        <v>0.515151515151515</v>
+        <v>0.704081632653061</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0123906705539359</v>
       </c>
       <c r="V5">
-        <v>0.96969696969697</v>
+        <v>0.947521865889213</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00801749271137026</v>
       </c>
       <c r="X5">
-        <v>0.171717171717172</v>
+        <v>0.229591836734694</v>
       </c>
     </row>
   </sheetData>
